--- a/Datos/Anuario2024/040301_ViviendaProtegida.xlsx
+++ b/Datos/Anuario2024/040301_ViviendaProtegida.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9315"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="0" sheetId="34" r:id="rId1"/>
+    <sheet name="1" sheetId="30" r:id="rId2"/>
+    <sheet name="2" sheetId="31" r:id="rId3"/>
+    <sheet name="3" sheetId="32" r:id="rId4"/>
+    <sheet name="4" sheetId="33" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -85,86 +91,158 @@
     <definedName name="R_6.6">#REF!</definedName>
     <definedName name="R_6.7">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId123" roundtripDataSignature="AMtx7mi14629vqxTlXuNpB96wxU93wUxZw=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="21">
+  <si>
+    <t>Viviendas</t>
+  </si>
+  <si>
+    <t>Municipio València</t>
+  </si>
+  <si>
+    <t>Provincia València</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t>Calificaciones Provisionales</t>
+  </si>
+  <si>
+    <t>Número de expedientes</t>
+  </si>
+  <si>
+    <t>Calificaciones Definitivas</t>
+  </si>
+  <si>
+    <t>Solicitadas</t>
+  </si>
+  <si>
+    <t>Concedidas</t>
+  </si>
+  <si>
+    <t>VIVIENDA PROTEGIDA</t>
+  </si>
+  <si>
+    <t>Alquiler general</t>
+  </si>
+  <si>
+    <t>Bono Alquiler Joven</t>
+  </si>
+  <si>
+    <t>Edificios</t>
+  </si>
+  <si>
+    <t>Rehabilitación de viviendas</t>
+  </si>
+  <si>
+    <t>Expedientes</t>
+  </si>
+  <si>
+    <t>Fuente: Vicepresidencia Segunda y Conselleria de Servicios Sociales, Igualdad y Vivienda. Generalitat Valenciana.</t>
+  </si>
+  <si>
+    <t>4. Ayudas a Inquilinos. 2023</t>
+  </si>
+  <si>
+    <t>3. Viviendas objeto de ayuda a la Rehabilitación. 2023</t>
+  </si>
+  <si>
+    <t>2. Viviendas Protegidas Rehabilitadas. 2023</t>
+  </si>
+  <si>
+    <t>1. Viviendas Protegidas de Nueva Construcción (VPNC). 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color theme="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <color theme="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -217,148 +295,89 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -795,655 +814,511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="29.7109375" customWidth="1" min="1" max="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>VIVIENDA PROTEGIDA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>1. Viviendas Protegidas de Nueva Construcción (VPNC). 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="7" t="n"/>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Municipio València</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Provincia València</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Calificaciones Provisionales</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n"/>
-      <c r="C4" s="4" t="n"/>
-      <c r="D4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Número de expedientes</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>9</v>
       </c>
-      <c r="D5" s="29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Viviendas</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="D5" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
         <v>396</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>465</v>
       </c>
-      <c r="D6" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="9" t="inlineStr">
-        <is>
-          <t>Calificaciones Definitivas</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Número de expedientes</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="D6" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>5</v>
       </c>
-      <c r="D8" s="28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Viviendas</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
+      <c r="D8" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="5">
         <v>245</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>274</v>
       </c>
-      <c r="D9" s="29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Vicepresidencia Segunda y Conselleria de Servicios Sociales, Igualdad y Vivienda. Generalitat Valenciana.</t>
-        </is>
+      <c r="D9" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>2. Viviendas Protegidas Rehabilitadas. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="19" t="n"/>
-      <c r="C1" s="19" t="n"/>
-      <c r="D1" s="19" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="18" t="n"/>
-      <c r="B2" s="19" t="n"/>
-      <c r="C2" s="19" t="n"/>
-      <c r="D2" s="19" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="20" t="n"/>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t>Municipio València</t>
-        </is>
-      </c>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t>Provincia València</t>
-        </is>
-      </c>
-      <c r="D3" s="21" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Calificaciones Provisionales</t>
-        </is>
-      </c>
-      <c r="B4" s="24" t="n"/>
-      <c r="C4" s="24" t="n"/>
-      <c r="D4" s="24" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="13" t="inlineStr">
-        <is>
-          <t>Edificios</t>
-        </is>
-      </c>
-      <c r="B5" s="23" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="23">
         <v>20</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="23">
         <v>35</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="23">
         <v>57</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Viviendas</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="24">
         <v>339</v>
       </c>
-      <c r="C6" s="24" t="n">
+      <c r="C6" s="24">
         <v>582</v>
       </c>
-      <c r="D6" s="24" t="n">
+      <c r="D6" s="24">
         <v>940</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="13" t="inlineStr">
-        <is>
-          <t>Rehabilitación de viviendas</t>
-        </is>
-      </c>
-      <c r="B7" s="23" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="23">
         <v>0</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="23">
         <v>0</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Calificaciones Definitivas</t>
-        </is>
-      </c>
-      <c r="B8" s="24" t="n"/>
-      <c r="C8" s="24" t="n"/>
-      <c r="D8" s="24" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="13" t="inlineStr">
-        <is>
-          <t>Edificios</t>
-        </is>
-      </c>
-      <c r="B9" s="23" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="23">
         <v>16</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="23">
         <v>29</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="23">
         <v>49</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>Viviendas</t>
-        </is>
-      </c>
-      <c r="B10" s="24" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="24">
         <v>240</v>
       </c>
-      <c r="C10" s="24" t="n">
+      <c r="C10" s="24">
         <v>430</v>
       </c>
-      <c r="D10" s="24" t="n">
+      <c r="D10" s="24">
         <v>777</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="13" t="inlineStr">
-        <is>
-          <t>Rehabilitación de viviendas</t>
-        </is>
-      </c>
-      <c r="B11" s="23" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="23">
         <v>0</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="23">
         <v>0</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="23">
         <v>0</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Vicepresidencia Segunda y Conselleria de Servicios Sociales, Igualdad y Vivienda. Generalitat Valenciana.</t>
-        </is>
-      </c>
-      <c r="B12" s="24" t="n"/>
-      <c r="C12" s="24" t="n"/>
-      <c r="D12" s="24" t="n"/>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="15.7109375" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>3. Viviendas objeto de ayuda a la Rehabilitación. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="25" t="n"/>
-      <c r="C1" s="25" t="n"/>
-      <c r="D1" s="19" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="19" t="n"/>
-      <c r="B2" s="19" t="n"/>
-      <c r="C2" s="19" t="n"/>
-      <c r="D2" s="19" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="20" t="n"/>
-      <c r="B3" s="21" t="inlineStr">
-        <is>
-          <t>Municipio València</t>
-        </is>
-      </c>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t>Provincia València</t>
-        </is>
-      </c>
-      <c r="D3" s="21" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="8" t="inlineStr">
-        <is>
-          <t>Expedientes</t>
-        </is>
-      </c>
-      <c r="B4" s="27" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="27">
         <v>1128</v>
       </c>
-      <c r="C4" s="27" t="n">
+      <c r="C4" s="27">
         <v>2439</v>
       </c>
-      <c r="D4" s="27" t="n">
+      <c r="D4" s="27">
         <v>4055</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="9" t="inlineStr">
-        <is>
-          <t>Viviendas</t>
-        </is>
-      </c>
-      <c r="B5" s="26" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="26">
         <v>7863</v>
       </c>
-      <c r="C5" s="26" t="n">
+      <c r="C5" s="26">
         <v>13891</v>
       </c>
-      <c r="D5" s="26" t="n">
+      <c r="D5" s="26">
         <v>25410</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Vicepresidencia Segunda y Conselleria de Servicios Sociales, Igualdad y Vivienda. Generalitat Valenciana.</t>
-        </is>
-      </c>
-      <c r="B6" s="24" t="n"/>
-      <c r="C6" s="24" t="n"/>
-      <c r="D6" s="24" t="n"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="12.85546875" customWidth="1" min="2" max="4"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="30" t="inlineStr">
-        <is>
-          <t>4. Ayudas a Inquilinos. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="n"/>
-      <c r="C1" s="2" t="n"/>
-      <c r="D1" s="2" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n"/>
-      <c r="B2" s="2" t="n"/>
-      <c r="C2" s="2" t="n"/>
-      <c r="D2" s="2" t="n"/>
-    </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="17" t="inlineStr">
-        <is>
-          <t>Alquiler general</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Municipio València</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Provincia València</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>Solicitadas</t>
-        </is>
-      </c>
-      <c r="B4" s="15" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="15">
         <v>3203</v>
       </c>
-      <c r="C4" s="15" t="n">
+      <c r="C4" s="15">
         <v>9412</v>
       </c>
-      <c r="D4" s="15" t="n">
+      <c r="D4" s="15">
         <v>18806</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>Concedidas</t>
-        </is>
-      </c>
-      <c r="B5" s="16" t="n">
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16">
         <v>0</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="16">
         <v>0</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="17" t="inlineStr">
-        <is>
-          <t>Bono Alquiler Joven</t>
-        </is>
-      </c>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
-      <c r="D6" s="17" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>Solicitadas</t>
-        </is>
-      </c>
-      <c r="B7" s="15" t="n">
+    <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
         <v>3717</v>
       </c>
-      <c r="C7" s="15" t="n">
+      <c r="C7" s="15">
         <v>7871</v>
       </c>
-      <c r="D7" s="15" t="n">
+      <c r="D7" s="15">
         <v>13570</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="11" t="inlineStr">
-        <is>
-          <t>Concedidas</t>
-        </is>
-      </c>
-      <c r="B8" s="16" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16">
         <v>1265</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="16">
         <v>2819</v>
       </c>
-      <c r="D8" s="16" t="n">
+      <c r="D8" s="16">
         <v>5176</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Vicepresidencia Segunda y Conselleria de Servicios Sociales, Igualdad y Vivienda. Generalitat Valenciana.</t>
-        </is>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>